--- a/data/trans_orig/P79A7_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79A7_2023-Edad-trans_orig.xlsx
@@ -1431,16 +1431,16 @@
         <v>3403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>471</v>
+        <v>674</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>4980</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6833538568862398</v>
+        <v>0.68335385688624</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09456805900240386</v>
+        <v>0.1354023266765913</v>
       </c>
       <c r="W16" s="6" t="n">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4290</v>
+        <v>4306</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.31664614311376</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8615453130209468</v>
+        <v>0.8645976733234088</v>
       </c>
     </row>
     <row r="18">
@@ -1598,16 +1598,16 @@
         <v>10147</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6077</v>
+        <v>5152</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>13226</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.7672033953803613</v>
+        <v>0.7672033953803614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4594948975662281</v>
+        <v>0.3895267782381822</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1632,7 +1632,7 @@
         <v>17477</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11845</v>
+        <v>12137</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>20556</v>
@@ -1641,7 +1641,7 @@
         <v>0.8502132202083884</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5762388957829572</v>
+        <v>0.5904142209495989</v>
       </c>
       <c r="W19" s="6" t="n">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7149</v>
+        <v>8074</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2327966046196386</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5405051024337717</v>
+        <v>0.6104732217618178</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8711</v>
+        <v>8419</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1497867797916115</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4237611042170446</v>
+        <v>0.4095857790504011</v>
       </c>
     </row>
     <row r="21">
